--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>№ Задачи</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Front-end форма со списком пользователей</t>
+  </si>
+  <si>
+    <t>Поменять и протестить подключение к боевому sql серверу</t>
+  </si>
+  <si>
+    <t>сейчас подключение идет к localDB</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +123,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -164,6 +182,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,7 +494,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +533,7 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -524,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -539,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -554,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -569,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -584,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -599,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -616,7 +640,7 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -631,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -642,10 +666,18 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>№ Задачи</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>сейчас подключение идет к localDB</t>
+  </si>
+  <si>
+    <t>В работе</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,8 +646,8 @@
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>№ Задачи</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>В работе</t>
+  </si>
+  <si>
+    <t>Добавить кнопу забыли пароль. При нажатии на кнопку переходить на форму восстановления пароля.</t>
+  </si>
+  <si>
+    <t>Форма восстановления пароля должна содержать : текстовое поле для ввода почты, label восстановление пароля и кнопку восстановить</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку восстановить , отправлять письмо на указанную почту с кодом или смс на телефон</t>
+  </si>
+  <si>
+    <t>Надо разобраться как это правильно делается. Про смс видел на метанайте где-то</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,22 +694,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>№ Задачи</t>
   </si>
@@ -96,10 +96,34 @@
     <t>Форма восстановления пароля должна содержать : текстовое поле для ввода почты, label восстановление пароля и кнопку восстановить</t>
   </si>
   <si>
-    <t>При нажатии на кнопку восстановить , отправлять письмо на указанную почту с кодом или смс на телефон</t>
-  </si>
-  <si>
     <t>Надо разобраться как это правильно делается. Про смс видел на метанайте где-то</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При нажатии на кнопку восстановить , отправлять письмо на указанную почту с кодом </t>
+  </si>
+  <si>
+    <t>Front-end Забыли пароль</t>
+  </si>
+  <si>
+    <t>Front-end форма со списком ролей</t>
+  </si>
+  <si>
+    <t>Проверка подтверждения пароля на стороне клиента</t>
+  </si>
+  <si>
+    <t>Подтверждение по почте при регистрации</t>
+  </si>
+  <si>
+    <t>Уже делали , но удалили</t>
+  </si>
+  <si>
+    <t>Замена старого пароля на новый, после нажатия на кнопку забыли пароль</t>
+  </si>
+  <si>
+    <t>Подтверждение по SMS при регистрации</t>
+  </si>
+  <si>
+    <t>Как на метанайте</t>
   </si>
 </sst>
 </file>
@@ -116,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +177,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -181,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -203,6 +239,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -508,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +697,7 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -704,9 +746,11 @@
       <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -714,62 +758,116 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>№ Задачи</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Как на метанайте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать email статичным полем </t>
+  </si>
+  <si>
+    <t>email не надо вводить при восстановлении пароля, он должен передаваться в контроллер без возможности его изменения. Сейчас если вбить другой email то пароль изменится у него , т. К. пароль ищется с помощью findbyemail</t>
   </si>
 </sst>
 </file>
@@ -179,13 +185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,12 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,297 +584,305 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,8 +700,8 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>19</v>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -880,8 +880,8 @@
       <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>9</v>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
